--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\02_TibetanDic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanDict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0BEAD-1760-4A7B-BC30-EB88B5A18AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2851E2-91B4-4513-AC2D-A4EDB4CE3A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="17281" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>word</t>
   </si>
@@ -90,9 +90,6 @@
     <t>私</t>
   </si>
   <si>
-    <t>Je ; moi</t>
-  </si>
-  <si>
     <t>ང་བོད་པ་ཡིན།</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>見る</t>
   </si>
   <si>
-    <t>Look</t>
-  </si>
-  <si>
-    <t>Regarder</t>
-  </si>
-  <si>
     <t>དཔེ་ཆ་བལྟ་གི་ཡོད།</t>
   </si>
   <si>
@@ -180,12 +171,6 @@
     <t>週</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Semaine</t>
-  </si>
-  <si>
     <t>trans_en</t>
   </si>
   <si>
@@ -193,16 +178,91 @@
   </si>
   <si>
     <t>I; me</t>
+  </si>
+  <si>
+    <t>མདུན་ལམ།</t>
+  </si>
+  <si>
+    <t>གྲོ་མ་འབྲས་སིལ།</t>
+  </si>
+  <si>
+    <t>བག་ལེབ།</t>
+  </si>
+  <si>
+    <t>ཤ་བག་ལེབ།</t>
+  </si>
+  <si>
+    <t>མ་བྱན།</t>
+  </si>
+  <si>
+    <t>avenir ; perspective d'avenir</t>
+  </si>
+  <si>
+    <t>semaine</t>
+  </si>
+  <si>
+    <t>regarder</t>
+  </si>
+  <si>
+    <t>je ; moi</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>riz au beurre et aux bulbes de potentille</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>beignet à l viande</t>
+  </si>
+  <si>
+    <t>cuisiner</t>
+  </si>
+  <si>
+    <t>前途</t>
+  </si>
+  <si>
+    <t>饼</t>
+  </si>
+  <si>
+    <t>肉饼</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>V01-L02</t>
+  </si>
+  <si>
+    <t>V01-L04</t>
+  </si>
+  <si>
+    <t>V01-L05</t>
+  </si>
+  <si>
+    <t>V01-L06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -585,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -594,110 +654,193 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanDict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2851E2-91B4-4513-AC2D-A4EDB4CE3A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311EA31-22F8-4777-A283-833B0B7D4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
   <si>
     <t>word</t>
   </si>
@@ -81,9 +81,6 @@
     <t>V01-L01</t>
   </si>
   <si>
-    <t>./sounds/V1L1-01.wav</t>
-  </si>
-  <si>
     <t>我</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>V01-L03</t>
   </si>
   <si>
-    <t>sounds/look.wav</t>
-  </si>
-  <si>
     <t>V.</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>V02-L01</t>
   </si>
   <si>
-    <t>sounds/sa_khor.wav</t>
-  </si>
-  <si>
     <t>N.</t>
   </si>
   <si>
@@ -240,20 +231,386 @@
     <t>V01-L02</t>
   </si>
   <si>
-    <t>V01-L04</t>
-  </si>
-  <si>
-    <t>V01-L05</t>
-  </si>
-  <si>
-    <t>V01-L06</t>
+    <t>མདུན་(front)+ལམ་(road)</t>
+  </si>
+  <si>
+    <t>བག་(dough)+ལེབ་(dish)</t>
+  </si>
+  <si>
+    <t>ཤ་(meat)+བག་(dough)+ལེབ་(dish)</t>
+  </si>
+  <si>
+    <t>ནད་པ།</t>
+  </si>
+  <si>
+    <t>མོ་ཊ།</t>
+  </si>
+  <si>
+    <t>འཚོ་བ།</t>
+  </si>
+  <si>
+    <t>འགྲམ།</t>
+  </si>
+  <si>
+    <t>སྐད་གྲགས་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>མགྱོགས་པོ།</t>
+  </si>
+  <si>
+    <t>གསལ་པོ</t>
+  </si>
+  <si>
+    <t>སྔ་པོ།</t>
+  </si>
+  <si>
+    <t>བརྟན་པོ།</t>
+  </si>
+  <si>
+    <t>ཏན་ཏན།</t>
+  </si>
+  <si>
+    <t>གཏན་གཏན།</t>
+  </si>
+  <si>
+    <t>ཕལ་ཆེར།</t>
+  </si>
+  <si>
+    <t>གཅིག་བྱས་ན།</t>
+  </si>
+  <si>
+    <t>ཡར།</t>
+  </si>
+  <si>
+    <t>མར།</t>
+  </si>
+  <si>
+    <t>འཚོ་བ་བསྐྱལ་བ།</t>
+  </si>
+  <si>
+    <t>མི་ཚེ་བསྐྱལ་བ།</t>
+  </si>
+  <si>
+    <t>སྦྱངས་པ།</t>
+  </si>
+  <si>
+    <t>སློབ་སྦྱོང་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>སློབ་སྦྱོང་བྱས་པ།</t>
+  </si>
+  <si>
+    <t>Postp.</t>
+  </si>
+  <si>
+    <t>Adj.</t>
+  </si>
+  <si>
+    <t>Adv.</t>
+  </si>
+  <si>
+    <t>སྐད་(voice)+གྲགས་(resound)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t>闻名</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>清楚</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>肯定</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>向上</t>
+  </si>
+  <si>
+    <t>向下</t>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>病人</t>
+  </si>
+  <si>
+    <t>un(e) malade</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>vie ; existence ; conditions de vie</t>
+  </si>
+  <si>
+    <t>au bord de ; joue</t>
+  </si>
+  <si>
+    <t>célèbre</t>
+  </si>
+  <si>
+    <t>rapide</t>
+  </si>
+  <si>
+    <t>clair</t>
+  </si>
+  <si>
+    <t>tôt</t>
+  </si>
+  <si>
+    <t>sûr ; certain ; stable ; solide</t>
+  </si>
+  <si>
+    <t>sûr ; certain</t>
+  </si>
+  <si>
+    <t>peut-être</t>
+  </si>
+  <si>
+    <t>vers le haut</t>
+  </si>
+  <si>
+    <t>vers le bas</t>
+  </si>
+  <si>
+    <t>mener une existence</t>
+  </si>
+  <si>
+    <t>mener une vie</t>
+  </si>
+  <si>
+    <t>apprendre</t>
+  </si>
+  <si>
+    <t>étudier ; faire des études</t>
+  </si>
+  <si>
+    <t>進路</t>
+  </si>
+  <si>
+    <t>餅</t>
+  </si>
+  <si>
+    <t>肉餅</t>
+  </si>
+  <si>
+    <t>料理人</t>
+  </si>
+  <si>
+    <t>患者</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>～沿い</t>
+  </si>
+  <si>
+    <t>有名な</t>
+  </si>
+  <si>
+    <t>明るい</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>きっと</t>
+  </si>
+  <si>
+    <t>多分</t>
+  </si>
+  <si>
+    <t>生きる</t>
+  </si>
+  <si>
+    <t>暮らす</t>
+  </si>
+  <si>
+    <t>学ぶ</t>
+  </si>
+  <si>
+    <t>研究する</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>meat pie</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>早めに</t>
+  </si>
+  <si>
+    <t>sure; certain</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-01.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-02.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-03.wav</t>
+  </si>
+  <si>
+    <t>ཁྱེད་རད་།</t>
+  </si>
+  <si>
+    <t>ཁོང་།</t>
+  </si>
+  <si>
+    <t>ཁོང་ཚོ།</t>
+  </si>
+  <si>
+    <t>ཁོད་གི</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-04.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-05.wav</t>
+  </si>
+  <si>
+    <t>Det.</t>
+  </si>
+  <si>
+    <t>你</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>彼、彼女</t>
+  </si>
+  <si>
+    <t>彼ら</t>
+  </si>
+  <si>
+    <t>彼の</t>
+  </si>
+  <si>
+    <t>他；他</t>
+  </si>
+  <si>
+    <t>他们</t>
+  </si>
+  <si>
+    <t>他的</t>
+  </si>
+  <si>
+    <t>vous (honorifique) ; tu</t>
+  </si>
+  <si>
+    <t>you (honorific) ; you</t>
+  </si>
+  <si>
+    <t>ཁྱེད་རང་གི་མིང་ལ་ག་རེ་ཟེར་ཀྱི་ཡོད་རེད།</t>
+  </si>
+  <si>
+    <t>Comment vous appellez-vous?</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>お名前は何ですか？</t>
+  </si>
+  <si>
+    <t>你叫什么名字？</t>
+  </si>
+  <si>
+    <t>il ; lui ; elle</t>
+  </si>
+  <si>
+    <t>he; she; him; her</t>
+  </si>
+  <si>
+    <t>ils ; eux ; elles</t>
+  </si>
+  <si>
+    <t>they; them</t>
+  </si>
+  <si>
+    <t>a lui ; de lui ; sien</t>
+  </si>
+  <si>
+    <t>his ; her</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +623,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="A-Himalaya"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,8 +650,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,16 +933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="5" max="6" width="9.06640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -591,10 +960,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -613,10 +982,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -634,209 +1003,774 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="J29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" t="s">
-        <v>65</v>
+      <c r="J30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanDict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311EA31-22F8-4777-A283-833B0B7D4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D367BE6-13B0-4BD6-A0D1-B7A037D34BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>word</t>
   </si>
@@ -147,9 +147,6 @@
     <t>གཟའ་འཁོར།</t>
   </si>
   <si>
-    <t>V02-L01</t>
-  </si>
-  <si>
     <t>N.</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>厨师</t>
   </si>
   <si>
-    <t>V01-L02</t>
-  </si>
-  <si>
     <t>མདུན་(front)+ལམ་(road)</t>
   </si>
   <si>
@@ -604,6 +598,9 @@
   </si>
   <si>
     <t>his ; her</t>
+  </si>
+  <si>
+    <t>V02-L02</t>
   </si>
 </sst>
 </file>
@@ -936,7 +933,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B8" sqref="B8:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -982,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
         <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1011,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1023,10 +1020,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -1046,121 +1043,121 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
         <v>181</v>
-      </c>
-      <c r="M3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -1192,10 +1189,10 @@
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
@@ -1218,559 +1215,559 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\02_TibetanDic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanDict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0BEAD-1760-4A7B-BC30-EB88B5A18AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874C87EA-BFDE-4964-9FB0-67DB5943A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="17281" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>word</t>
   </si>
@@ -81,18 +81,12 @@
     <t>V01-L01</t>
   </si>
   <si>
-    <t>./sounds/V1L1-01.wav</t>
-  </si>
-  <si>
     <t>我</t>
   </si>
   <si>
     <t>私</t>
   </si>
   <si>
-    <t>Je ; moi</t>
-  </si>
-  <si>
     <t>ང་བོད་པ་ཡིན།</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>V01-L03</t>
   </si>
   <si>
-    <t>sounds/look.wav</t>
-  </si>
-  <si>
     <t>V.</t>
   </si>
   <si>
@@ -138,12 +129,6 @@
     <t>見る</t>
   </si>
   <si>
-    <t>Look</t>
-  </si>
-  <si>
-    <t>Regarder</t>
-  </si>
-  <si>
     <t>དཔེ་ཆ་བལྟ་གི་ཡོད།</t>
   </si>
   <si>
@@ -162,12 +147,6 @@
     <t>གཟའ་འཁོར།</t>
   </si>
   <si>
-    <t>V02-L01</t>
-  </si>
-  <si>
-    <t>sounds/sa_khor.wav</t>
-  </si>
-  <si>
     <t>N.</t>
   </si>
   <si>
@@ -180,12 +159,6 @@
     <t>週</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Semaine</t>
-  </si>
-  <si>
     <t>trans_en</t>
   </si>
   <si>
@@ -193,19 +166,465 @@
   </si>
   <si>
     <t>I; me</t>
+  </si>
+  <si>
+    <t>མདུན་ལམ།</t>
+  </si>
+  <si>
+    <t>གྲོ་མ་འབྲས་སིལ།</t>
+  </si>
+  <si>
+    <t>བག་ལེབ།</t>
+  </si>
+  <si>
+    <t>ཤ་བག་ལེབ།</t>
+  </si>
+  <si>
+    <t>མ་བྱན།</t>
+  </si>
+  <si>
+    <t>avenir ; perspective d'avenir</t>
+  </si>
+  <si>
+    <t>semaine</t>
+  </si>
+  <si>
+    <t>regarder</t>
+  </si>
+  <si>
+    <t>je ; moi</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>riz au beurre et aux bulbes de potentille</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>beignet à l viande</t>
+  </si>
+  <si>
+    <t>cuisiner</t>
+  </si>
+  <si>
+    <t>前途</t>
+  </si>
+  <si>
+    <t>饼</t>
+  </si>
+  <si>
+    <t>肉饼</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>མདུན་(front)+ལམ་(road)</t>
+  </si>
+  <si>
+    <t>བག་(dough)+ལེབ་(dish)</t>
+  </si>
+  <si>
+    <t>ཤ་(meat)+བག་(dough)+ལེབ་(dish)</t>
+  </si>
+  <si>
+    <t>ནད་པ།</t>
+  </si>
+  <si>
+    <t>མོ་ཊ།</t>
+  </si>
+  <si>
+    <t>འཚོ་བ།</t>
+  </si>
+  <si>
+    <t>འགྲམ།</t>
+  </si>
+  <si>
+    <t>སྐད་གྲགས་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>མགྱོགས་པོ།</t>
+  </si>
+  <si>
+    <t>གསལ་པོ</t>
+  </si>
+  <si>
+    <t>སྔ་པོ།</t>
+  </si>
+  <si>
+    <t>བརྟན་པོ།</t>
+  </si>
+  <si>
+    <t>ཏན་ཏན།</t>
+  </si>
+  <si>
+    <t>གཏན་གཏན།</t>
+  </si>
+  <si>
+    <t>ཕལ་ཆེར།</t>
+  </si>
+  <si>
+    <t>གཅིག་བྱས་ན།</t>
+  </si>
+  <si>
+    <t>ཡར།</t>
+  </si>
+  <si>
+    <t>མར།</t>
+  </si>
+  <si>
+    <t>འཚོ་བ་བསྐྱལ་བ།</t>
+  </si>
+  <si>
+    <t>མི་ཚེ་བསྐྱལ་བ།</t>
+  </si>
+  <si>
+    <t>སྦྱངས་པ།</t>
+  </si>
+  <si>
+    <t>སློབ་སྦྱོང་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>སློབ་སྦྱོང་བྱས་པ།</t>
+  </si>
+  <si>
+    <t>Postp.</t>
+  </si>
+  <si>
+    <t>Adj.</t>
+  </si>
+  <si>
+    <t>Adv.</t>
+  </si>
+  <si>
+    <t>སྐད་(voice)+གྲགས་(resound)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t>闻名</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>清楚</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>肯定</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>向上</t>
+  </si>
+  <si>
+    <t>向下</t>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>病人</t>
+  </si>
+  <si>
+    <t>un(e) malade</t>
+  </si>
+  <si>
+    <t>voiture</t>
+  </si>
+  <si>
+    <t>vie ; existence ; conditions de vie</t>
+  </si>
+  <si>
+    <t>au bord de ; joue</t>
+  </si>
+  <si>
+    <t>célèbre</t>
+  </si>
+  <si>
+    <t>rapide</t>
+  </si>
+  <si>
+    <t>clair</t>
+  </si>
+  <si>
+    <t>tôt</t>
+  </si>
+  <si>
+    <t>sûr ; certain ; stable ; solide</t>
+  </si>
+  <si>
+    <t>sûr ; certain</t>
+  </si>
+  <si>
+    <t>peut-être</t>
+  </si>
+  <si>
+    <t>vers le haut</t>
+  </si>
+  <si>
+    <t>vers le bas</t>
+  </si>
+  <si>
+    <t>mener une existence</t>
+  </si>
+  <si>
+    <t>mener une vie</t>
+  </si>
+  <si>
+    <t>apprendre</t>
+  </si>
+  <si>
+    <t>étudier ; faire des études</t>
+  </si>
+  <si>
+    <t>進路</t>
+  </si>
+  <si>
+    <t>餅</t>
+  </si>
+  <si>
+    <t>肉餅</t>
+  </si>
+  <si>
+    <t>料理人</t>
+  </si>
+  <si>
+    <t>患者</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>～沿い</t>
+  </si>
+  <si>
+    <t>有名な</t>
+  </si>
+  <si>
+    <t>明るい</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>きっと</t>
+  </si>
+  <si>
+    <t>多分</t>
+  </si>
+  <si>
+    <t>生きる</t>
+  </si>
+  <si>
+    <t>暮らす</t>
+  </si>
+  <si>
+    <t>学ぶ</t>
+  </si>
+  <si>
+    <t>研究する</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>meat pie</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>早めに</t>
+  </si>
+  <si>
+    <t>sure; certain</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-01.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-02.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-03.wav</t>
+  </si>
+  <si>
+    <t>ཁྱེད་རད་།</t>
+  </si>
+  <si>
+    <t>ཁོང་།</t>
+  </si>
+  <si>
+    <t>ཁོང་ཚོ།</t>
+  </si>
+  <si>
+    <t>ཁོད་གི</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-04.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-05.wav</t>
+  </si>
+  <si>
+    <t>Det.</t>
+  </si>
+  <si>
+    <t>你</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>彼、彼女</t>
+  </si>
+  <si>
+    <t>彼ら</t>
+  </si>
+  <si>
+    <t>彼の</t>
+  </si>
+  <si>
+    <t>他；他</t>
+  </si>
+  <si>
+    <t>他们</t>
+  </si>
+  <si>
+    <t>他的</t>
+  </si>
+  <si>
+    <t>vous (honorifique) ; tu</t>
+  </si>
+  <si>
+    <t>you (honorific) ; you</t>
+  </si>
+  <si>
+    <t>ཁྱེད་རང་གི་མིང་ལ་ག་རེ་ཟེར་ཀྱི་ཡོད་རེད།</t>
+  </si>
+  <si>
+    <t>Comment vous appellez-vous?</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>お名前は何ですか？</t>
+  </si>
+  <si>
+    <t>你叫什么名字？</t>
+  </si>
+  <si>
+    <t>il ; lui ; elle</t>
+  </si>
+  <si>
+    <t>he; she; him; her</t>
+  </si>
+  <si>
+    <t>ils ; eux ; elles</t>
+  </si>
+  <si>
+    <t>they; them</t>
+  </si>
+  <si>
+    <t>a lui ; de lui ; sien</t>
+  </si>
+  <si>
+    <t>his ; her</t>
+  </si>
+  <si>
+    <t>V02-L02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="A-Himalaya"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,8 +647,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,16 +930,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="5" max="6" width="9.06640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -531,10 +957,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -553,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -574,130 +1000,778 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
+      <c r="J30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>